--- a/excel_db/sources/Available properties DVG 28.11.xlsx
+++ b/excel_db/sources/Available properties DVG 28.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\excel_db\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E49E3B-B9CF-4702-8116-0E4B86B9537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102BD9C4-5AD8-46E4-A758-1F78737885F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D81194E-8FC0-4EED-9B10-3DCFB1790D27}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="178">
   <si>
     <t>Asset id</t>
   </si>
@@ -54,9 +54,6 @@
     <t>RA145594</t>
   </si>
   <si>
-    <t>RA313825</t>
-  </si>
-  <si>
     <t>RA587220</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>RA183906</t>
   </si>
   <si>
-    <t>RA548888</t>
-  </si>
-  <si>
     <t>RA187069</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>RA206679</t>
   </si>
   <si>
-    <t>https://marketplace.altamiraproperties.gr/listings/4714</t>
-  </si>
-  <si>
     <t>https://marketplace.altamiraproperties.gr/listings/7996</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>https://marketplace.altamiraproperties.gr/listings/19347</t>
   </si>
   <si>
-    <t>https://marketplace.altamiraproperties.gr/listings/19356</t>
-  </si>
-  <si>
     <t>https://marketplace.altamiraproperties.gr/listings/18264</t>
   </si>
   <si>
@@ -210,9 +198,6 @@
     <t xml:space="preserve">Price </t>
   </si>
   <si>
-    <t>Plot of land, even and buildable, within a city plan, surface area 264.90 sq.m., on Florinis street, in Gerakas, Municipality of Pallini, Attica.</t>
-  </si>
-  <si>
     <t>Α 1st floor apartment of 84.20 sq.m. It consists of two bedrooms and one bathroom. It is located in Victoria, Attica.</t>
   </si>
   <si>
@@ -246,9 +231,6 @@
     <t>Gerakas</t>
   </si>
   <si>
-    <t>Florinis street</t>
-  </si>
-  <si>
     <t>Patision - Acharnon</t>
   </si>
   <si>
@@ -279,9 +261,6 @@
     <t>Korinthos</t>
   </si>
   <si>
-    <t>Nea Ionia</t>
-  </si>
-  <si>
     <t>Agios Stefanos</t>
   </si>
   <si>
@@ -327,9 +306,6 @@
     <t>Paliouri</t>
   </si>
   <si>
-    <t>https://marketplace.altamiraproperties.gr/listings/3312</t>
-  </si>
-  <si>
     <t>https://marketplace.altamiraproperties.gr/listings/15683</t>
   </si>
   <si>
@@ -372,9 +348,6 @@
     <t>1-3 Ainianon and Diakou streets</t>
   </si>
   <si>
-    <t>131 El. Venizelou street</t>
-  </si>
-  <si>
     <t>Elliniko</t>
   </si>
   <si>
@@ -462,9 +435,6 @@
     <t>48 Fleming Street</t>
   </si>
   <si>
-    <t>58-60 Galatsiou street</t>
-  </si>
-  <si>
     <t>Neo Faliro</t>
   </si>
   <si>
@@ -546,9 +516,6 @@
     <t>Α 3rd floor apartment of 106.73 sq m. It consists of 2 bedrooms and 1 bathroom. It is located in Agios Ioannis Rentis, Piraeus.</t>
   </si>
   <si>
-    <t>Α 3rd floor office with an area of ​​109.23 sq m. Located in the Central Sector of Athens, Attica Region.</t>
-  </si>
-  <si>
     <t>Third floor apartment with an area of 97.70 sq.m. It consists of 2 bedrooms and 1 bathroom. It is located in the area of 'New Faliro', Piraeus, Attica.</t>
   </si>
   <si>
@@ -570,9 +537,6 @@
     <t>ISLANDS</t>
   </si>
   <si>
-    <t>LAND</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
@@ -589,15 +553,6 @@
   </si>
   <si>
     <t>1981</t>
-  </si>
-  <si>
-    <t>OFFICE</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>3rd floor office with an area of ​​36.65 sq m. Located in the Municipality of Nea Ionia, Attica.</t>
   </si>
   <si>
     <t>Year of construction</t>
@@ -1077,11 +1032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759A25AA-A2B7-4C42-B6F9-627AC1F42688}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1131,19 +1086,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G2" s="3">
         <v>1995</v>
@@ -1152,7 +1107,7 @@
         <v>140000</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1160,19 +1115,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G3" s="3">
         <v>1978</v>
@@ -1181,7 +1136,7 @@
         <v>68000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1189,28 +1144,28 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G4" s="3">
-        <v>1990</v>
+        <v>1969</v>
       </c>
       <c r="H4" s="4">
-        <v>39000</v>
+        <v>200000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1218,28 +1173,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G5" s="3">
-        <v>1969</v>
-      </c>
-      <c r="H5" s="4">
-        <v>200000</v>
+        <v>1994</v>
+      </c>
+      <c r="H5" s="6">
+        <v>98000</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1247,28 +1202,28 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G6" s="3">
-        <v>1994</v>
+        <v>1968</v>
       </c>
       <c r="H6" s="6">
-        <v>98000</v>
+        <v>92000</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1276,28 +1231,28 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G7" s="3">
-        <v>1968</v>
-      </c>
-      <c r="H7" s="6">
-        <v>92000</v>
+        <v>1981</v>
+      </c>
+      <c r="H7" s="5">
+        <v>78000</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1305,28 +1260,28 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G8" s="3">
-        <v>1981</v>
-      </c>
-      <c r="H8" s="5">
-        <v>78000</v>
+        <v>1977</v>
+      </c>
+      <c r="H8" s="4">
+        <v>240000</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1334,28 +1289,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G9" s="3">
-        <v>1977</v>
-      </c>
-      <c r="H9" s="4">
-        <v>240000</v>
+        <v>1982</v>
+      </c>
+      <c r="H9" s="5">
+        <v>81000</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1363,28 +1318,28 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G10" s="3">
-        <v>1982</v>
-      </c>
-      <c r="H10" s="5">
-        <v>81000</v>
+        <v>1970</v>
+      </c>
+      <c r="H10" s="6">
+        <v>113000</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1392,28 +1347,28 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G11" s="3">
-        <v>1970</v>
-      </c>
-      <c r="H11" s="6">
-        <v>113000</v>
+        <v>1959</v>
+      </c>
+      <c r="H11" s="4">
+        <v>390000</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1421,28 +1376,28 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G12" s="3">
-        <v>1959</v>
-      </c>
-      <c r="H12" s="4">
-        <v>390000</v>
+        <v>1994</v>
+      </c>
+      <c r="H12" s="6">
+        <v>57000</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1450,28 +1405,28 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G13" s="3">
-        <v>1994</v>
+        <v>1965</v>
       </c>
       <c r="H13" s="6">
-        <v>57000</v>
+        <v>73000</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1479,28 +1434,28 @@
         <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G14" s="3">
-        <v>1965</v>
+        <v>1971</v>
       </c>
       <c r="H14" s="6">
         <v>73000</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1508,28 +1463,28 @@
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G15" s="3">
-        <v>1971</v>
-      </c>
-      <c r="H15" s="6">
-        <v>73000</v>
+        <v>1964</v>
+      </c>
+      <c r="H15" s="5">
+        <v>79000</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1537,28 +1492,28 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G16" s="3">
-        <v>1964</v>
-      </c>
-      <c r="H16" s="5">
-        <v>79000</v>
+        <v>1979</v>
+      </c>
+      <c r="H16" s="6">
+        <v>190000</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1566,28 +1521,28 @@
         <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G17" s="3">
-        <v>1979</v>
-      </c>
-      <c r="H17" s="6">
-        <v>190000</v>
+        <v>1990</v>
+      </c>
+      <c r="H17" s="5">
+        <v>76000</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1595,28 +1550,28 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G18" s="3">
-        <v>1990</v>
-      </c>
-      <c r="H18" s="5">
-        <v>76000</v>
+        <v>1995</v>
+      </c>
+      <c r="H18" s="6">
+        <v>214000</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1624,28 +1579,28 @@
         <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G19" s="3">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="H19" s="6">
-        <v>214000</v>
+        <v>167000</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1653,28 +1608,28 @@
         <v>24</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G20" s="3">
-        <v>1987</v>
+        <v>2001</v>
       </c>
       <c r="H20" s="6">
-        <v>167000</v>
+        <v>620000</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1682,28 +1637,28 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G21" s="3">
-        <v>2001</v>
-      </c>
-      <c r="H21" s="6">
-        <v>620000</v>
+        <v>1990</v>
+      </c>
+      <c r="H21" s="5">
+        <v>246000</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1711,28 +1666,28 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G22" s="3">
-        <v>1990</v>
-      </c>
-      <c r="H22" s="5">
-        <v>246000</v>
+        <v>2004</v>
+      </c>
+      <c r="H22" s="6">
+        <v>189000</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1740,28 +1695,28 @@
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G23" s="3">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="H23" s="6">
-        <v>189000</v>
+        <v>208000</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1769,28 +1724,28 @@
         <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G24" s="3">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="H24" s="6">
-        <v>148000</v>
+        <v>201000</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1798,479 +1753,390 @@
         <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1975</v>
+      </c>
+      <c r="H25" s="6">
+        <v>81000</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>83763</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1995</v>
-      </c>
-      <c r="H25" s="6">
-        <v>208000</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2010</v>
-      </c>
-      <c r="H26" s="6">
-        <v>201000</v>
+        <v>69</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="5">
+        <v>100000</v>
       </c>
       <c r="I26" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>98174</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1975</v>
-      </c>
-      <c r="H27" s="6">
-        <v>81000</v>
+        <v>71</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="5">
+        <v>85000</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>109895</v>
+        <v>116268</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>188</v>
+        <v>75</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1978</v>
       </c>
       <c r="H28" s="5">
-        <v>130000</v>
+        <v>50000</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>83763</v>
+        <v>104880</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>181</v>
+        <v>80</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1983</v>
       </c>
       <c r="H29" s="5">
-        <v>100000</v>
+        <v>85000</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>98174</v>
+        <v>86153</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>182</v>
+        <v>82</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2004</v>
       </c>
       <c r="H30" s="5">
         <v>85000</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>116268</v>
+        <v>90407</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1978</v>
+        <v>84</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="H31" s="5">
-        <v>50000</v>
+        <v>88000</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>104880</v>
+        <v>90257</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1983</v>
+        <v>86</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="H32" s="5">
-        <v>85000</v>
+        <v>53500</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>86153</v>
+        <v>116647</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G33" s="3">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="H33" s="5">
-        <v>85000</v>
+        <v>365000</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>90407</v>
+        <v>126241</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>186</v>
+        <v>88</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2009</v>
       </c>
       <c r="H34" s="5">
-        <v>88000</v>
+        <v>290000</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>90257</v>
+        <v>90221</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H35" s="5">
-        <v>53500</v>
+        <v>210000</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>116647</v>
+        <v>145919</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G36" s="3">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="H36" s="5">
-        <v>365000</v>
+        <v>90000</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>126241</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="3">
-        <v>2009</v>
-      </c>
-      <c r="H37" s="5">
-        <v>290000</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>90221</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="5">
-        <v>210000</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>145919</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="3">
-        <v>2006</v>
-      </c>
-      <c r="H39" s="5">
-        <v>90000</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I39" xr:uid="{759A25AA-A2B7-4C42-B6F9-627AC1F42688}"/>
+  <autoFilter ref="A1:I36" xr:uid="{759A25AA-A2B7-4C42-B6F9-627AC1F42688}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I39" r:id="rId1" xr:uid="{16567AD5-F1E2-47BB-B103-F1DEDDFAE0E1}"/>
+    <hyperlink ref="I36" r:id="rId1" xr:uid="{16567AD5-F1E2-47BB-B103-F1DEDDFAE0E1}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{889B3B7B-D1A0-4F03-9CED-F0D2F6B28865}"/>
     <hyperlink ref="I3" r:id="rId3" xr:uid="{BBD4411B-0638-4A32-BD55-1297A8C6F31C}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{8B2BB66A-2355-40C6-9BDE-281478687264}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{F498E9A0-B297-4B21-BD32-8D8AA059DFF8}"/>
-    <hyperlink ref="I6" r:id="rId6" xr:uid="{F798F3A7-366D-4649-9C28-A35FC1538078}"/>
-    <hyperlink ref="I7" r:id="rId7" xr:uid="{E3F89862-105D-44FD-8B2A-616A604E990C}"/>
-    <hyperlink ref="I8" r:id="rId8" xr:uid="{FB992E2B-9B0C-4170-8C6F-C1C1B29D47B1}"/>
-    <hyperlink ref="I9" r:id="rId9" xr:uid="{92BF3F7B-22AE-4A64-AA03-6C57319D7D25}"/>
-    <hyperlink ref="I10" r:id="rId10" xr:uid="{8667444E-4B81-43F7-A991-A7E176FFC5E5}"/>
-    <hyperlink ref="I11" r:id="rId11" xr:uid="{50861198-36A4-4A39-85EC-44F6D3182E21}"/>
-    <hyperlink ref="I12" r:id="rId12" xr:uid="{6036464F-85B8-4CF0-A4CB-00C6B81FBCCE}"/>
-    <hyperlink ref="I13" r:id="rId13" xr:uid="{C9073868-1089-43A1-AD76-0433873A676A}"/>
-    <hyperlink ref="I14" r:id="rId14" xr:uid="{89137625-1A4F-4F5E-8ABA-DF65A6AF63A8}"/>
-    <hyperlink ref="I15" r:id="rId15" xr:uid="{12450791-82B9-4D87-9E66-C7445E9A8AC7}"/>
-    <hyperlink ref="I16" r:id="rId16" xr:uid="{8403DEEA-ADD5-47F8-919C-B89BEED6482E}"/>
-    <hyperlink ref="I17" r:id="rId17" xr:uid="{2EE902C2-329C-4E57-B608-4ED03F348FC2}"/>
-    <hyperlink ref="I18" r:id="rId18" xr:uid="{419EFE0D-275F-4AB0-B0EE-1D49D98E6F1C}"/>
-    <hyperlink ref="I19" r:id="rId19" xr:uid="{0BE77364-4435-4D3C-A105-BDDF9CBD254D}"/>
-    <hyperlink ref="I20" r:id="rId20" xr:uid="{A2558FC7-CD8D-4AF5-B2B8-C502FF6FA35D}"/>
-    <hyperlink ref="I21" r:id="rId21" xr:uid="{CED4DA8D-F5E0-43C1-84F8-DD8826E17C4B}"/>
-    <hyperlink ref="I22" r:id="rId22" xr:uid="{7C1B1875-85A5-4CC9-990C-B842ACBAF259}"/>
-    <hyperlink ref="I23" r:id="rId23" xr:uid="{88F53D1A-27B7-4FE1-8CB7-4DC992C2A3B8}"/>
-    <hyperlink ref="I25" r:id="rId24" xr:uid="{F9DAE7A0-5675-4D5D-8741-C3D493F677BE}"/>
-    <hyperlink ref="I24" r:id="rId25" xr:uid="{73DAEF64-128C-4DAC-8526-95A55E2EDF7F}"/>
-    <hyperlink ref="I26" r:id="rId26" xr:uid="{FBD55423-BEFE-4287-B5B2-8FBBB69EF95C}"/>
-    <hyperlink ref="I27" r:id="rId27" xr:uid="{6FBF34A2-B7B2-409F-B3BB-BAF28E017EFE}"/>
-    <hyperlink ref="I28" r:id="rId28" xr:uid="{9A3B5D76-3A1C-474D-9DE7-3DA5588A0832}"/>
-    <hyperlink ref="I29" r:id="rId29" xr:uid="{AC441404-6A92-4FD3-865B-D2DFBB60165D}"/>
-    <hyperlink ref="I30" r:id="rId30" xr:uid="{9F42F869-7ECA-4AAD-A274-8742C95777F7}"/>
-    <hyperlink ref="I31" r:id="rId31" xr:uid="{850D3750-B2CF-4B9E-B0A2-3455FF681F2A}"/>
-    <hyperlink ref="I32" r:id="rId32" xr:uid="{C3371755-CF00-4D08-9EFA-B0FD46CAD915}"/>
-    <hyperlink ref="I33" r:id="rId33" xr:uid="{C34FD0AA-2A79-4D28-AE0C-095E829B016F}"/>
-    <hyperlink ref="I34" r:id="rId34" xr:uid="{44DA3589-9956-487C-9312-F9EAF78DA309}"/>
-    <hyperlink ref="I35" r:id="rId35" xr:uid="{25BA2BF7-CED4-44E9-93E5-A1DA48C084D7}"/>
-    <hyperlink ref="I36" r:id="rId36" xr:uid="{7C65B60F-6127-4293-B47C-484C093D2E11}"/>
-    <hyperlink ref="I37" r:id="rId37" xr:uid="{782B2D81-13AB-4641-991A-AFA8CAFF4468}"/>
-    <hyperlink ref="I38" r:id="rId38" xr:uid="{BFB0DBA6-0E18-4AE3-8BA2-545F01901BB6}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{F498E9A0-B297-4B21-BD32-8D8AA059DFF8}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{F798F3A7-366D-4649-9C28-A35FC1538078}"/>
+    <hyperlink ref="I6" r:id="rId6" xr:uid="{E3F89862-105D-44FD-8B2A-616A604E990C}"/>
+    <hyperlink ref="I7" r:id="rId7" xr:uid="{FB992E2B-9B0C-4170-8C6F-C1C1B29D47B1}"/>
+    <hyperlink ref="I8" r:id="rId8" xr:uid="{92BF3F7B-22AE-4A64-AA03-6C57319D7D25}"/>
+    <hyperlink ref="I9" r:id="rId9" xr:uid="{8667444E-4B81-43F7-A991-A7E176FFC5E5}"/>
+    <hyperlink ref="I10" r:id="rId10" xr:uid="{50861198-36A4-4A39-85EC-44F6D3182E21}"/>
+    <hyperlink ref="I11" r:id="rId11" xr:uid="{6036464F-85B8-4CF0-A4CB-00C6B81FBCCE}"/>
+    <hyperlink ref="I12" r:id="rId12" xr:uid="{C9073868-1089-43A1-AD76-0433873A676A}"/>
+    <hyperlink ref="I13" r:id="rId13" xr:uid="{89137625-1A4F-4F5E-8ABA-DF65A6AF63A8}"/>
+    <hyperlink ref="I14" r:id="rId14" xr:uid="{12450791-82B9-4D87-9E66-C7445E9A8AC7}"/>
+    <hyperlink ref="I15" r:id="rId15" xr:uid="{8403DEEA-ADD5-47F8-919C-B89BEED6482E}"/>
+    <hyperlink ref="I16" r:id="rId16" xr:uid="{2EE902C2-329C-4E57-B608-4ED03F348FC2}"/>
+    <hyperlink ref="I17" r:id="rId17" xr:uid="{419EFE0D-275F-4AB0-B0EE-1D49D98E6F1C}"/>
+    <hyperlink ref="I18" r:id="rId18" xr:uid="{0BE77364-4435-4D3C-A105-BDDF9CBD254D}"/>
+    <hyperlink ref="I19" r:id="rId19" xr:uid="{A2558FC7-CD8D-4AF5-B2B8-C502FF6FA35D}"/>
+    <hyperlink ref="I20" r:id="rId20" xr:uid="{CED4DA8D-F5E0-43C1-84F8-DD8826E17C4B}"/>
+    <hyperlink ref="I21" r:id="rId21" xr:uid="{7C1B1875-85A5-4CC9-990C-B842ACBAF259}"/>
+    <hyperlink ref="I22" r:id="rId22" xr:uid="{88F53D1A-27B7-4FE1-8CB7-4DC992C2A3B8}"/>
+    <hyperlink ref="I23" r:id="rId23" xr:uid="{F9DAE7A0-5675-4D5D-8741-C3D493F677BE}"/>
+    <hyperlink ref="I24" r:id="rId24" xr:uid="{FBD55423-BEFE-4287-B5B2-8FBBB69EF95C}"/>
+    <hyperlink ref="I25" r:id="rId25" xr:uid="{6FBF34A2-B7B2-409F-B3BB-BAF28E017EFE}"/>
+    <hyperlink ref="I26" r:id="rId26" xr:uid="{AC441404-6A92-4FD3-865B-D2DFBB60165D}"/>
+    <hyperlink ref="I27" r:id="rId27" xr:uid="{9F42F869-7ECA-4AAD-A274-8742C95777F7}"/>
+    <hyperlink ref="I28" r:id="rId28" xr:uid="{850D3750-B2CF-4B9E-B0A2-3455FF681F2A}"/>
+    <hyperlink ref="I29" r:id="rId29" xr:uid="{C3371755-CF00-4D08-9EFA-B0FD46CAD915}"/>
+    <hyperlink ref="I30" r:id="rId30" xr:uid="{C34FD0AA-2A79-4D28-AE0C-095E829B016F}"/>
+    <hyperlink ref="I31" r:id="rId31" xr:uid="{44DA3589-9956-487C-9312-F9EAF78DA309}"/>
+    <hyperlink ref="I32" r:id="rId32" xr:uid="{25BA2BF7-CED4-44E9-93E5-A1DA48C084D7}"/>
+    <hyperlink ref="I33" r:id="rId33" xr:uid="{7C65B60F-6127-4293-B47C-484C093D2E11}"/>
+    <hyperlink ref="I34" r:id="rId34" xr:uid="{782B2D81-13AB-4641-991A-AFA8CAFF4468}"/>
+    <hyperlink ref="I35" r:id="rId35" xr:uid="{BFB0DBA6-0E18-4AE3-8BA2-545F01901BB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/excel_db/sources/Available properties DVG 28.11.xlsx
+++ b/excel_db/sources/Available properties DVG 28.11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\excel_db\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102BD9C4-5AD8-46E4-A758-1F78737885F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93BC1EE-6D21-4794-A932-3C8796FFE520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D81194E-8FC0-4EED-9B10-3DCFB1790D27}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D81194E-8FC0-4EED-9B10-3DCFB1790D27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1035,8 +1035,8 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
